--- a/app/tables/exampleForm/forms/exampleForm/exampleForm.xlsx
+++ b/app/tables/exampleForm/forms/exampleForm/exampleForm.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
-  <workbookPr autoCompressPictures="0" defaultThemeVersion="124226"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="22202"/>
+  <workbookPr autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="1920" yWindow="6360" windowWidth="19420" windowHeight="12220"/>
+    <workbookView xWindow="1920" yWindow="6360" windowWidth="27300" windowHeight="14680"/>
   </bookViews>
   <sheets>
     <sheet name="survey" sheetId="1" r:id="rId1"/>
@@ -117,386 +117,420 @@
     <t>It will be used in the next question.</t>
   </si>
   <si>
-    <t>&lt;h3&gt;
+    <t>Handlebars templates allow labels to change depending on the values previously entered.</t>
+  </si>
+  <si>
+    <t>integer</t>
+  </si>
+  <si>
+    <t>selected(data('examples'), 'dynamic_defaults')</t>
+  </si>
+  <si>
+    <t>avg_coffee</t>
+  </si>
+  <si>
+    <t>On average, how many cups of coffee do you drink in a day?</t>
+  </si>
+  <si>
+    <t>coffee_today</t>
+  </si>
+  <si>
+    <t>How many cups of coffee did you drink today?</t>
+  </si>
+  <si>
+    <t>date</t>
+  </si>
+  <si>
+    <t>born</t>
+  </si>
+  <si>
+    <t>When were you born?</t>
+  </si>
+  <si>
+    <t>data('born') &amp;&amp; data('born').getDay() === now().getDay() &amp;&amp; data('born').getMonth() === now().getMonth()</t>
+  </si>
+  <si>
+    <t>Happy Birthday!</t>
+  </si>
+  <si>
+    <t>This prompt shows how to use dates in fomulas.</t>
+  </si>
+  <si>
+    <t>time</t>
+  </si>
+  <si>
+    <t>What time do you usually wake up?</t>
+  </si>
+  <si>
+    <t>datetime</t>
+  </si>
+  <si>
+    <t>When will you be available for a follow up survey?</t>
+  </si>
+  <si>
+    <t>selected(data('examples'), 'geopoint')</t>
+  </si>
+  <si>
+    <t>location</t>
+  </si>
+  <si>
+    <t>Record your location:</t>
+  </si>
+  <si>
+    <t>begin screen</t>
+  </si>
+  <si>
+    <t>selected(data('examples'), 'screen_group')</t>
+  </si>
+  <si>
+    <t>visited_continents</t>
+  </si>
+  <si>
+    <t>Which continents have you visited?</t>
+  </si>
+  <si>
+    <t>calculates.ask_about_seattle()</t>
+  </si>
+  <si>
+    <t>visited_seattle</t>
+  </si>
+  <si>
+    <t>Have you visited Seattle?</t>
+  </si>
+  <si>
+    <t>end screen</t>
+  </si>
+  <si>
+    <t>audio_test</t>
+  </si>
+  <si>
+    <t>Make a recording:</t>
+  </si>
+  <si>
+    <t>video</t>
+  </si>
+  <si>
+    <t>video_test</t>
+  </si>
+  <si>
+    <t>Take a video:</t>
+  </si>
+  <si>
+    <t>image_test</t>
+  </si>
+  <si>
+    <t>Take a picture:</t>
+  </si>
+  <si>
+    <t>selected(data('examples'), 'custom_template')</t>
+  </si>
+  <si>
+    <t>The following data will be used to generate a weight for age plot.</t>
+  </si>
+  <si>
+    <t>age</t>
+  </si>
+  <si>
+    <t>Enter age (in years):</t>
+  </si>
+  <si>
+    <t>Must be less than 20.</t>
+  </si>
+  <si>
+    <t>data('age') &lt;= 20</t>
+  </si>
+  <si>
+    <t>The growth chart only has data for below 20 years. This age you entered will not fit on the plot.</t>
+  </si>
+  <si>
+    <t>decimal</t>
+  </si>
+  <si>
+    <t>weight</t>
+  </si>
+  <si>
+    <t>Enter weight (in lbs):</t>
+  </si>
+  <si>
+    <t>sex</t>
+  </si>
+  <si>
+    <t>Enter sex:</t>
+  </si>
+  <si>
+    <t>specialTemplateTest</t>
+  </si>
+  <si>
+    <t>This is a custom template that uses D3.js to plot an age and weight on a growth chart:</t>
+  </si>
+  <si>
+    <t>ageWeightPlot.handlebars</t>
+  </si>
+  <si>
+    <t>rating</t>
+  </si>
+  <si>
+    <t>How would you rate this survey?</t>
+  </si>
+  <si>
+    <t>1 is very bad. 10 is very good.</t>
+  </si>
+  <si>
+    <t>range</t>
+  </si>
+  <si>
+    <t>calculation</t>
+  </si>
+  <si>
+    <t>ask_about_seattle</t>
+  </si>
+  <si>
+    <t>selected(data('visited_continents'), 'NorthAmerica')</t>
+  </si>
+  <si>
+    <t>yesno</t>
+  </si>
+  <si>
+    <t>yes</t>
+  </si>
+  <si>
+    <t>no</t>
+  </si>
+  <si>
+    <t>continents</t>
+  </si>
+  <si>
+    <t>NorthAmerica</t>
+  </si>
+  <si>
+    <t>North America</t>
+  </si>
+  <si>
+    <t>SouthAmerica</t>
+  </si>
+  <si>
+    <t>South America</t>
+  </si>
+  <si>
+    <t>Europe</t>
+  </si>
+  <si>
+    <t>Africa</t>
+  </si>
+  <si>
+    <t>Asia</t>
+  </si>
+  <si>
+    <t>Australia</t>
+  </si>
+  <si>
+    <t>Antarctica</t>
+  </si>
+  <si>
+    <t>intents</t>
+  </si>
+  <si>
+    <t>intent launching</t>
+  </si>
+  <si>
+    <t>label_features</t>
+  </si>
+  <si>
+    <t>label features</t>
+  </si>
+  <si>
+    <t>dynamic_defaults</t>
+  </si>
+  <si>
+    <t>media</t>
+  </si>
+  <si>
+    <t>screen_group</t>
+  </si>
+  <si>
+    <t>screen group with select and calculate</t>
+  </si>
+  <si>
+    <t>custom_template</t>
+  </si>
+  <si>
+    <t>custom template</t>
+  </si>
+  <si>
+    <t>sexes</t>
+  </si>
+  <si>
+    <t>male</t>
+  </si>
+  <si>
+    <t>female</t>
+  </si>
+  <si>
+    <t>value</t>
+  </si>
+  <si>
+    <t>form_id</t>
+  </si>
+  <si>
+    <t>exampleForm</t>
+  </si>
+  <si>
+    <t>form_version</t>
+  </si>
+  <si>
+    <t>Example Form</t>
+  </si>
+  <si>
+    <t>display.text</t>
+  </si>
+  <si>
+    <t>setting_name</t>
+  </si>
+  <si>
+    <t>choice_list_name</t>
+  </si>
+  <si>
+    <t>data_value</t>
+  </si>
+  <si>
+    <t>calculation_name</t>
+  </si>
+  <si>
+    <t>clause</t>
+  </si>
+  <si>
+    <t>values_list</t>
+  </si>
+  <si>
+    <t>select_multiple</t>
+  </si>
+  <si>
+    <t>select_one</t>
+  </si>
+  <si>
+    <t>branch_label</t>
+  </si>
+  <si>
+    <t>if</t>
+  </si>
+  <si>
+    <t>end if</t>
+  </si>
+  <si>
+    <t>selected(data('examples'), 'intents')</t>
+  </si>
+  <si>
+    <t>selected(data('examples'), 'label_features')</t>
+  </si>
+  <si>
+    <t>if // demo_datetime</t>
+  </si>
+  <si>
+    <t>end if // demo_datetime</t>
+  </si>
+  <si>
+    <t xml:space="preserve">end if </t>
+  </si>
+  <si>
+    <t>if // demo_screen_group</t>
+  </si>
+  <si>
+    <t xml:space="preserve">if </t>
+  </si>
+  <si>
+    <t>selected(data('examples'), 'media')</t>
+  </si>
+  <si>
+    <t>selected(data('examples'), 'datetime')</t>
+  </si>
+  <si>
+    <t>end if // demo_screen_group</t>
+  </si>
+  <si>
+    <t>display.title</t>
+  </si>
+  <si>
+    <t>survey</t>
+  </si>
+  <si>
+    <t>display.hint</t>
+  </si>
+  <si>
+    <t>display.audio</t>
+  </si>
+  <si>
+    <t>display.image</t>
+  </si>
+  <si>
+    <t>hideInContents</t>
+  </si>
+  <si>
+    <t>assign</t>
+  </si>
+  <si>
+    <t>(( data('coffee_today') == null ) ? data('avg_coffee') : data('coffee_today'))</t>
+  </si>
+  <si>
+    <t>computed assignment of initial values</t>
+  </si>
+  <si>
+    <t>model.isSessionVariable</t>
+  </si>
+  <si>
+    <t>((data('rating') == null) ? data('default_rating') : data('rating'))</t>
+  </si>
+  <si>
+    <t>default_rating</t>
+  </si>
+  <si>
+    <t>Enter an initial rating (1-10) for this survey</t>
+  </si>
+  <si>
+    <t>If the form does not yet have a rating, this will be proposed for the rating value.  This value is not retained in the survey result set and exists only for the duration of this survey session.</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">&lt;h3&gt;
 This label uses Handlesbars template features:
 &lt;/h3&gt;
-{{#if name}}
-Hello {{name}}!
+{{#if </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+      </rPr>
+      <t>data.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+      </rPr>
+      <t>name}}
+Hello {{</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+      </rPr>
+      <t>data.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+      </rPr>
+      <t>name}}!
 {{else}}
 Name not entered.
 {{/if}}</t>
-  </si>
-  <si>
-    <t>Handlebars templates allow labels to change depending on the values previously entered.</t>
-  </si>
-  <si>
-    <t>integer</t>
-  </si>
-  <si>
-    <t>selected(data('examples'), 'dynamic_defaults')</t>
-  </si>
-  <si>
-    <t>avg_coffee</t>
-  </si>
-  <si>
-    <t>On average, how many cups of coffee do you drink in a day?</t>
-  </si>
-  <si>
-    <t>coffee_today</t>
-  </si>
-  <si>
-    <t>How many cups of coffee did you drink today?</t>
-  </si>
-  <si>
-    <t>date</t>
-  </si>
-  <si>
-    <t>born</t>
-  </si>
-  <si>
-    <t>When were you born?</t>
-  </si>
-  <si>
-    <t>data('born') &amp;&amp; data('born').getDay() === now().getDay() &amp;&amp; data('born').getMonth() === now().getMonth()</t>
-  </si>
-  <si>
-    <t>Happy Birthday!</t>
-  </si>
-  <si>
-    <t>This prompt shows how to use dates in fomulas.</t>
-  </si>
-  <si>
-    <t>time</t>
-  </si>
-  <si>
-    <t>What time do you usually wake up?</t>
-  </si>
-  <si>
-    <t>datetime</t>
-  </si>
-  <si>
-    <t>When will you be available for a follow up survey?</t>
-  </si>
-  <si>
-    <t>selected(data('examples'), 'geopoint')</t>
-  </si>
-  <si>
-    <t>location</t>
-  </si>
-  <si>
-    <t>Record your location:</t>
-  </si>
-  <si>
-    <t>begin screen</t>
-  </si>
-  <si>
-    <t>selected(data('examples'), 'screen_group')</t>
-  </si>
-  <si>
-    <t>visited_continents</t>
-  </si>
-  <si>
-    <t>Which continents have you visited?</t>
-  </si>
-  <si>
-    <t>calculates.ask_about_seattle()</t>
-  </si>
-  <si>
-    <t>visited_seattle</t>
-  </si>
-  <si>
-    <t>Have you visited Seattle?</t>
-  </si>
-  <si>
-    <t>end screen</t>
-  </si>
-  <si>
-    <t>audio_test</t>
-  </si>
-  <si>
-    <t>Make a recording:</t>
-  </si>
-  <si>
-    <t>video</t>
-  </si>
-  <si>
-    <t>video_test</t>
-  </si>
-  <si>
-    <t>Take a video:</t>
-  </si>
-  <si>
-    <t>image_test</t>
-  </si>
-  <si>
-    <t>Take a picture:</t>
-  </si>
-  <si>
-    <t>selected(data('examples'), 'custom_template')</t>
-  </si>
-  <si>
-    <t>The following data will be used to generate a weight for age plot.</t>
-  </si>
-  <si>
-    <t>age</t>
-  </si>
-  <si>
-    <t>Enter age (in years):</t>
-  </si>
-  <si>
-    <t>Must be less than 20.</t>
-  </si>
-  <si>
-    <t>data('age') &lt;= 20</t>
-  </si>
-  <si>
-    <t>The growth chart only has data for below 20 years. This age you entered will not fit on the plot.</t>
-  </si>
-  <si>
-    <t>decimal</t>
-  </si>
-  <si>
-    <t>weight</t>
-  </si>
-  <si>
-    <t>Enter weight (in lbs):</t>
-  </si>
-  <si>
-    <t>sex</t>
-  </si>
-  <si>
-    <t>Enter sex:</t>
-  </si>
-  <si>
-    <t>specialTemplateTest</t>
-  </si>
-  <si>
-    <t>This is a custom template that uses D3.js to plot an age and weight on a growth chart:</t>
-  </si>
-  <si>
-    <t>ageWeightPlot.handlebars</t>
-  </si>
-  <si>
-    <t>rating</t>
-  </si>
-  <si>
-    <t>How would you rate this survey?</t>
-  </si>
-  <si>
-    <t>1 is very bad. 10 is very good.</t>
-  </si>
-  <si>
-    <t>range</t>
-  </si>
-  <si>
-    <t>calculation</t>
-  </si>
-  <si>
-    <t>ask_about_seattle</t>
-  </si>
-  <si>
-    <t>selected(data('visited_continents'), 'NorthAmerica')</t>
-  </si>
-  <si>
-    <t>yesno</t>
-  </si>
-  <si>
-    <t>yes</t>
-  </si>
-  <si>
-    <t>no</t>
-  </si>
-  <si>
-    <t>continents</t>
-  </si>
-  <si>
-    <t>NorthAmerica</t>
-  </si>
-  <si>
-    <t>North America</t>
-  </si>
-  <si>
-    <t>SouthAmerica</t>
-  </si>
-  <si>
-    <t>South America</t>
-  </si>
-  <si>
-    <t>Europe</t>
-  </si>
-  <si>
-    <t>Africa</t>
-  </si>
-  <si>
-    <t>Asia</t>
-  </si>
-  <si>
-    <t>Australia</t>
-  </si>
-  <si>
-    <t>Antarctica</t>
-  </si>
-  <si>
-    <t>intents</t>
-  </si>
-  <si>
-    <t>intent launching</t>
-  </si>
-  <si>
-    <t>label_features</t>
-  </si>
-  <si>
-    <t>label features</t>
-  </si>
-  <si>
-    <t>dynamic_defaults</t>
-  </si>
-  <si>
-    <t>media</t>
-  </si>
-  <si>
-    <t>screen_group</t>
-  </si>
-  <si>
-    <t>screen group with select and calculate</t>
-  </si>
-  <si>
-    <t>custom_template</t>
-  </si>
-  <si>
-    <t>custom template</t>
-  </si>
-  <si>
-    <t>sexes</t>
-  </si>
-  <si>
-    <t>male</t>
-  </si>
-  <si>
-    <t>female</t>
-  </si>
-  <si>
-    <t>value</t>
-  </si>
-  <si>
-    <t>form_id</t>
-  </si>
-  <si>
-    <t>exampleForm</t>
-  </si>
-  <si>
-    <t>form_version</t>
-  </si>
-  <si>
-    <t>Example Form</t>
-  </si>
-  <si>
-    <t>display.text</t>
-  </si>
-  <si>
-    <t>setting_name</t>
-  </si>
-  <si>
-    <t>choice_list_name</t>
-  </si>
-  <si>
-    <t>data_value</t>
-  </si>
-  <si>
-    <t>calculation_name</t>
-  </si>
-  <si>
-    <t>clause</t>
-  </si>
-  <si>
-    <t>values_list</t>
-  </si>
-  <si>
-    <t>select_multiple</t>
-  </si>
-  <si>
-    <t>select_one</t>
-  </si>
-  <si>
-    <t>branch_label</t>
-  </si>
-  <si>
-    <t>if</t>
-  </si>
-  <si>
-    <t>end if</t>
-  </si>
-  <si>
-    <t>selected(data('examples'), 'intents')</t>
-  </si>
-  <si>
-    <t>selected(data('examples'), 'label_features')</t>
-  </si>
-  <si>
-    <t>if // demo_datetime</t>
-  </si>
-  <si>
-    <t>end if // demo_datetime</t>
-  </si>
-  <si>
-    <t xml:space="preserve">end if </t>
-  </si>
-  <si>
-    <t>if // demo_screen_group</t>
-  </si>
-  <si>
-    <t xml:space="preserve">if </t>
-  </si>
-  <si>
-    <t>selected(data('examples'), 'media')</t>
-  </si>
-  <si>
-    <t>selected(data('examples'), 'datetime')</t>
-  </si>
-  <si>
-    <t>end if // demo_screen_group</t>
-  </si>
-  <si>
-    <t>display.title</t>
-  </si>
-  <si>
-    <t>survey</t>
-  </si>
-  <si>
-    <t>display.hint</t>
-  </si>
-  <si>
-    <t>display.audio</t>
-  </si>
-  <si>
-    <t>display.image</t>
-  </si>
-  <si>
-    <t>hideInContents</t>
-  </si>
-  <si>
-    <t>assign</t>
-  </si>
-  <si>
-    <t>(( data('coffee_today') == null ) ? data('avg_coffee') : data('coffee_today'))</t>
-  </si>
-  <si>
-    <t>computed assignment of initial values</t>
-  </si>
-  <si>
-    <t>model.isSessionVariable</t>
-  </si>
-  <si>
-    <t>((data('rating') == null) ? data('default_rating') : data('rating'))</t>
-  </si>
-  <si>
-    <t>default_rating</t>
-  </si>
-  <si>
-    <t>Enter an initial rating (1-10) for this survey</t>
-  </si>
-  <si>
-    <t>If the form does not yet have a rating, this will be proposed for the rating value.  This value is not retained in the survey result set and exists only for the duration of this survey session.</t>
+    </r>
   </si>
 </sst>
 </file>
@@ -873,36 +907,36 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:U154"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="H1" workbookViewId="0">
-      <selection activeCell="K3" sqref="K3"/>
+    <sheetView tabSelected="1" topLeftCell="D4" workbookViewId="0">
+      <selection activeCell="I9" sqref="I9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.453125" defaultRowHeight="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="12.75" customHeight="1" x14ac:dyDescent="0"/>
   <cols>
-    <col min="2" max="2" width="24.453125" customWidth="1"/>
+    <col min="2" max="2" width="24.5" customWidth="1"/>
     <col min="3" max="3" width="27" customWidth="1"/>
-    <col min="4" max="4" width="40.81640625" customWidth="1"/>
-    <col min="5" max="6" width="27.1796875" customWidth="1"/>
-    <col min="7" max="8" width="24.81640625" customWidth="1"/>
-    <col min="9" max="10" width="41.81640625" customWidth="1"/>
+    <col min="4" max="4" width="40.83203125" customWidth="1"/>
+    <col min="5" max="6" width="27.1640625" customWidth="1"/>
+    <col min="7" max="8" width="24.83203125" customWidth="1"/>
+    <col min="9" max="10" width="41.83203125" customWidth="1"/>
     <col min="11" max="11" width="40" customWidth="1"/>
-    <col min="12" max="12" width="20.453125" customWidth="1"/>
+    <col min="12" max="12" width="20.5" customWidth="1"/>
     <col min="13" max="13" width="13" customWidth="1"/>
-    <col min="14" max="14" width="15.81640625" customWidth="1"/>
-    <col min="15" max="15" width="18.36328125" customWidth="1"/>
-    <col min="16" max="16" width="18.453125" customWidth="1"/>
+    <col min="14" max="14" width="15.83203125" customWidth="1"/>
+    <col min="15" max="15" width="18.33203125" customWidth="1"/>
+    <col min="16" max="16" width="18.5" customWidth="1"/>
     <col min="17" max="17" width="19" customWidth="1"/>
     <col min="19" max="19" width="16" customWidth="1"/>
-    <col min="20" max="20" width="18.1796875" customWidth="1"/>
-    <col min="21" max="21" width="14.36328125" customWidth="1"/>
+    <col min="20" max="20" width="18.1640625" customWidth="1"/>
+    <col min="21" max="21" width="14.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:21" ht="17.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="2:21" ht="17.5" customHeight="1">
       <c r="B1" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="C1" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>1</v>
@@ -911,28 +945,28 @@
         <v>0</v>
       </c>
       <c r="F1" s="4" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="G1" s="1" t="s">
         <v>2</v>
       </c>
       <c r="H1" s="4" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="I1" s="8" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="J1" s="8" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="K1" s="4" t="s">
+        <v>143</v>
+      </c>
+      <c r="L1" s="4" t="s">
         <v>144</v>
       </c>
-      <c r="L1" s="4" t="s">
+      <c r="M1" s="4" t="s">
         <v>145</v>
-      </c>
-      <c r="M1" s="4" t="s">
-        <v>146</v>
       </c>
       <c r="N1" s="1" t="s">
         <v>5</v>
@@ -956,30 +990,30 @@
         <v>11</v>
       </c>
       <c r="U1" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="2" spans="2:21" ht="17.5" customHeight="1" x14ac:dyDescent="0.25">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="2" spans="2:21" ht="17.5" customHeight="1">
       <c r="E2" s="4" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="F2" s="4"/>
       <c r="G2" t="s">
+        <v>152</v>
+      </c>
+      <c r="I2" t="s">
         <v>153</v>
-      </c>
-      <c r="I2" t="s">
-        <v>154</v>
       </c>
       <c r="J2" t="b">
         <v>1</v>
       </c>
       <c r="K2" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="3" spans="2:21" ht="17.5" customHeight="1" x14ac:dyDescent="0.25">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="3" spans="2:21" ht="17.5" customHeight="1">
       <c r="E3" s="4" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="F3" s="4" t="s">
         <v>12</v>
@@ -991,17 +1025,17 @@
         <v>13</v>
       </c>
     </row>
-    <row r="4" spans="2:21" ht="17.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:21" ht="17.5" customHeight="1">
       <c r="C4" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="D4" s="4" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="E4" s="6"/>
       <c r="F4" s="6"/>
     </row>
-    <row r="5" spans="2:21" ht="17.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="2:21" ht="17.5" customHeight="1">
       <c r="E5" t="s">
         <v>14</v>
       </c>
@@ -1012,7 +1046,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="6" spans="2:21" ht="17.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="2:21" ht="17.5" customHeight="1">
       <c r="E6" t="s">
         <v>16</v>
       </c>
@@ -1023,7 +1057,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="7" spans="2:21" ht="17.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:21" ht="17.5" customHeight="1">
       <c r="E7" t="s">
         <v>4</v>
       </c>
@@ -1034,7 +1068,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="8" spans="2:21" ht="17.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:21" ht="17.5" customHeight="1">
       <c r="E8" t="s">
         <v>3</v>
       </c>
@@ -1045,24 +1079,24 @@
         <v>21</v>
       </c>
     </row>
-    <row r="9" spans="2:21" ht="17.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="2:21" ht="17.5" customHeight="1">
       <c r="C9" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="E9" s="5"/>
       <c r="F9" s="5"/>
     </row>
-    <row r="10" spans="2:21" ht="17.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="2:21" ht="17.5" customHeight="1">
       <c r="C10" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="D10" s="4" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="E10" s="6"/>
       <c r="F10" s="6"/>
     </row>
-    <row r="11" spans="2:21" ht="17.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="2:21" ht="17.5" customHeight="1">
       <c r="E11" s="1" t="s">
         <v>22</v>
       </c>
@@ -1077,7 +1111,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="2:21" ht="17.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="2:21" ht="17.5" customHeight="1">
       <c r="E12" s="1" t="s">
         <v>22</v>
       </c>
@@ -1096,7 +1130,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="2:21" ht="17.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="2:21" ht="17.5" customHeight="1">
       <c r="E13" s="1" t="s">
         <v>28</v>
       </c>
@@ -1113,238 +1147,238 @@
         <v>30</v>
       </c>
     </row>
-    <row r="14" spans="2:21" ht="17.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="2:21" ht="17.5" customHeight="1">
       <c r="E14" s="1" t="s">
         <v>22</v>
       </c>
       <c r="F14" s="1"/>
-      <c r="I14" s="2" t="s">
-        <v>31</v>
+      <c r="I14" s="8" t="s">
+        <v>155</v>
       </c>
       <c r="J14" s="2"/>
       <c r="K14" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="U14" t="b">
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="2:21" ht="17.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="2:21" ht="17.5" customHeight="1">
       <c r="C15" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="E15" s="5"/>
       <c r="F15" s="5"/>
     </row>
-    <row r="16" spans="2:21" ht="17.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="2:21" ht="17.5" customHeight="1">
       <c r="C16" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="D16" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="E16" s="5"/>
       <c r="F16" s="5"/>
     </row>
-    <row r="17" spans="3:21" ht="17.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="3:21" ht="17.5" customHeight="1">
       <c r="E17" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="F17" s="1"/>
       <c r="G17" t="s">
+        <v>34</v>
+      </c>
+      <c r="I17" t="s">
         <v>35</v>
       </c>
-      <c r="I17" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="18" spans="3:21" ht="17.5" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="18" spans="3:21" ht="17.5" customHeight="1">
       <c r="C18" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="E18" s="1"/>
       <c r="F18" s="1"/>
     </row>
-    <row r="19" spans="3:21" ht="17.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="3:21" ht="17.5" customHeight="1">
       <c r="C19" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="D19" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="E19" s="1"/>
       <c r="F19" s="1"/>
     </row>
-    <row r="20" spans="3:21" ht="17.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="3:21" ht="17.5" customHeight="1">
       <c r="C20" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="E20" s="1"/>
       <c r="F20" s="1"/>
     </row>
-    <row r="21" spans="3:21" ht="17.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="3:21" ht="17.5" customHeight="1">
       <c r="E21" s="4" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="F21" s="1"/>
       <c r="G21" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="H21" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="22" spans="3:21" ht="17.5" customHeight="1" x14ac:dyDescent="0.25">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="22" spans="3:21" ht="17.5" customHeight="1">
       <c r="E22" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="F22" s="1"/>
       <c r="G22" t="s">
+        <v>36</v>
+      </c>
+      <c r="I22" t="s">
         <v>37</v>
       </c>
-      <c r="I22" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="23" spans="3:21" ht="17.5" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="23" spans="3:21" ht="17.5" customHeight="1">
       <c r="C23" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="E23" s="1"/>
       <c r="F23" s="1"/>
     </row>
-    <row r="24" spans="3:21" ht="17.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="3:21" ht="17.5" customHeight="1">
       <c r="C24" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="E24" s="1"/>
       <c r="F24" s="1"/>
     </row>
-    <row r="25" spans="3:21" ht="17.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="3:21" ht="17.5" customHeight="1">
       <c r="C25" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="D25" s="4" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="E25" s="6"/>
       <c r="F25" s="6"/>
     </row>
-    <row r="26" spans="3:21" ht="17.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="3:21" ht="17.5" customHeight="1">
       <c r="E26" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="F26" s="1"/>
       <c r="G26" t="s">
+        <v>39</v>
+      </c>
+      <c r="I26" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="I26" s="2" t="s">
+      <c r="J26" s="2"/>
+    </row>
+    <row r="27" spans="3:21" ht="24" customHeight="1">
+      <c r="C27" t="s">
+        <v>129</v>
+      </c>
+      <c r="D27" t="s">
         <v>41</v>
-      </c>
-      <c r="J26" s="2"/>
-    </row>
-    <row r="27" spans="3:21" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C27" t="s">
-        <v>130</v>
-      </c>
-      <c r="D27" t="s">
-        <v>42</v>
       </c>
       <c r="E27" s="1"/>
       <c r="F27" s="1"/>
       <c r="I27" s="2"/>
       <c r="J27" s="2"/>
     </row>
-    <row r="28" spans="3:21" ht="17.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="3:21" ht="17.5" customHeight="1">
       <c r="E28" s="1" t="s">
         <v>22</v>
       </c>
       <c r="F28" s="1"/>
       <c r="I28" s="2" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="J28" s="2"/>
       <c r="K28" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="U28" t="b">
         <v>1</v>
       </c>
     </row>
-    <row r="29" spans="3:21" ht="17.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="3:21" ht="17.5" customHeight="1">
       <c r="C29" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="E29" s="1"/>
       <c r="F29" s="1"/>
       <c r="I29" s="2"/>
       <c r="J29" s="2"/>
     </row>
-    <row r="30" spans="3:21" ht="17.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="3:21" ht="17.5" customHeight="1">
       <c r="E30" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F30" s="1"/>
       <c r="G30" t="s">
+        <v>44</v>
+      </c>
+      <c r="I30" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="I30" s="2" t="s">
+      <c r="J30" s="2"/>
+    </row>
+    <row r="31" spans="3:21" ht="17.5" customHeight="1">
+      <c r="E31" s="1" t="s">
         <v>46</v>
-      </c>
-      <c r="J30" s="2"/>
-    </row>
-    <row r="31" spans="3:21" ht="17.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="E31" s="1" t="s">
-        <v>47</v>
       </c>
       <c r="F31" s="1"/>
       <c r="G31" s="1" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H31" s="1"/>
       <c r="I31" s="2" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="J31" s="2"/>
     </row>
-    <row r="32" spans="3:21" ht="17.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="3:21" ht="17.5" customHeight="1">
       <c r="C32" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="E32" s="5"/>
       <c r="F32" s="5"/>
       <c r="G32" s="1"/>
       <c r="H32" s="1"/>
     </row>
-    <row r="33" spans="3:10" ht="17.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="3:10" ht="17.5" customHeight="1">
       <c r="C33" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="D33" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="E33" s="5"/>
       <c r="F33" s="5"/>
       <c r="G33" s="1"/>
       <c r="H33" s="1"/>
     </row>
-    <row r="34" spans="3:10" ht="17.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="3:10" ht="17.5" customHeight="1">
       <c r="E34" s="1" t="s">
         <v>16</v>
       </c>
       <c r="F34" s="1"/>
       <c r="G34" s="1" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="H34" s="1"/>
       <c r="I34" s="2" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="J34" s="2"/>
     </row>
-    <row r="35" spans="3:10" ht="17.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="3:10" ht="17.5" customHeight="1">
       <c r="C35" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="E35" s="1"/>
       <c r="F35" s="1"/>
@@ -1353,12 +1387,12 @@
       <c r="I35" s="2"/>
       <c r="J35" s="2"/>
     </row>
-    <row r="36" spans="3:10" ht="17.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="3:10" ht="17.5" customHeight="1">
       <c r="C36" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="D36" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E36" s="1"/>
       <c r="F36" s="1"/>
@@ -1367,34 +1401,34 @@
       <c r="I36" s="2"/>
       <c r="J36" s="2"/>
     </row>
-    <row r="37" spans="3:10" ht="17.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="3:10" ht="17.5" customHeight="1">
       <c r="C37" s="1" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="F37" s="1"/>
     </row>
-    <row r="38" spans="3:10" ht="17.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="3:10" ht="17.5" customHeight="1">
       <c r="E38" s="4" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="F38" s="4" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="G38" s="1" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="H38" s="1"/>
       <c r="I38" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="J38" s="2"/>
+    </row>
+    <row r="39" spans="3:10" ht="17.5" customHeight="1">
+      <c r="C39" t="s">
+        <v>129</v>
+      </c>
+      <c r="D39" s="1" t="s">
         <v>55</v>
-      </c>
-      <c r="J38" s="2"/>
-    </row>
-    <row r="39" spans="3:10" ht="17.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C39" t="s">
-        <v>130</v>
-      </c>
-      <c r="D39" s="1" t="s">
-        <v>56</v>
       </c>
       <c r="E39" s="4"/>
       <c r="F39" s="4"/>
@@ -1403,25 +1437,25 @@
       <c r="I39" s="2"/>
       <c r="J39" s="2"/>
     </row>
-    <row r="40" spans="3:10" ht="17.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="40" spans="3:10" ht="17.5" customHeight="1">
       <c r="E40" s="4" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="F40" s="4" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="G40" s="1" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="H40" s="1"/>
       <c r="I40" s="2" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="J40" s="2"/>
     </row>
-    <row r="41" spans="3:10" ht="17.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="41" spans="3:10" ht="17.5" customHeight="1">
       <c r="C41" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="D41" s="1"/>
       <c r="E41" s="4"/>
@@ -1431,205 +1465,205 @@
       <c r="I41" s="2"/>
       <c r="J41" s="2"/>
     </row>
-    <row r="42" spans="3:10" ht="17.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="42" spans="3:10" ht="17.5" customHeight="1">
       <c r="C42" s="1" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="F42" s="1"/>
     </row>
-    <row r="43" spans="3:10" ht="17.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="43" spans="3:10" ht="17.5" customHeight="1">
       <c r="C43" s="4" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="F43" s="1"/>
     </row>
-    <row r="44" spans="3:10" ht="17.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="44" spans="3:10" ht="17.5" customHeight="1">
       <c r="C44" t="s">
+        <v>137</v>
+      </c>
+      <c r="D44" t="s">
         <v>138</v>
-      </c>
-      <c r="D44" t="s">
-        <v>139</v>
       </c>
       <c r="E44" s="7"/>
       <c r="F44" s="7"/>
     </row>
-    <row r="45" spans="3:10" ht="17.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="45" spans="3:10" ht="17.5" customHeight="1">
       <c r="C45" s="1" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="F45" s="1"/>
     </row>
-    <row r="46" spans="3:10" ht="17.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="46" spans="3:10" ht="17.5" customHeight="1">
       <c r="E46" s="1" t="s">
         <v>3</v>
       </c>
       <c r="F46" s="1"/>
       <c r="G46" s="1" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="H46" s="1"/>
       <c r="I46" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="J46" s="2"/>
+    </row>
+    <row r="47" spans="3:10" ht="17.5" customHeight="1">
+      <c r="E47" s="1" t="s">
         <v>61</v>
-      </c>
-      <c r="J46" s="2"/>
-    </row>
-    <row r="47" spans="3:10" ht="17.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="E47" s="1" t="s">
-        <v>62</v>
       </c>
       <c r="F47" s="1"/>
       <c r="G47" s="1" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="H47" s="1"/>
       <c r="I47" s="2" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="J47" s="2"/>
     </row>
-    <row r="48" spans="3:10" ht="17.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="48" spans="3:10" ht="17.5" customHeight="1">
       <c r="E48" s="1" t="s">
         <v>4</v>
       </c>
       <c r="F48" s="1"/>
       <c r="G48" s="1" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="H48" s="1"/>
       <c r="I48" s="2" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="J48" s="2"/>
     </row>
-    <row r="49" spans="3:21" ht="17.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="49" spans="3:21" ht="17.5" customHeight="1">
       <c r="C49" s="1" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="F49" s="1"/>
     </row>
-    <row r="50" spans="3:21" ht="17.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="50" spans="3:21" ht="17.5" customHeight="1">
       <c r="C50" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="E50" s="5"/>
       <c r="F50" s="5"/>
       <c r="I50" s="2"/>
       <c r="J50" s="2"/>
     </row>
-    <row r="51" spans="3:21" ht="17.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="51" spans="3:21" ht="17.5" customHeight="1">
       <c r="C51" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="D51" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="E51" s="5"/>
       <c r="F51" s="5"/>
       <c r="I51" s="2"/>
       <c r="J51" s="2"/>
     </row>
-    <row r="52" spans="3:21" ht="17.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="52" spans="3:21" ht="17.5" customHeight="1">
       <c r="C52" s="1" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="F52" s="1"/>
       <c r="I52" s="2"/>
       <c r="J52" s="2"/>
     </row>
-    <row r="53" spans="3:21" ht="17.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="53" spans="3:21" ht="17.5" customHeight="1">
       <c r="E53" s="1" t="s">
         <v>22</v>
       </c>
       <c r="F53" s="1"/>
       <c r="I53" s="2" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="J53" s="2"/>
       <c r="U53" t="b">
         <v>1</v>
       </c>
     </row>
-    <row r="54" spans="3:21" ht="17.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="54" spans="3:21" ht="17.5" customHeight="1">
       <c r="E54" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="F54" s="1"/>
       <c r="G54" t="s">
+        <v>68</v>
+      </c>
+      <c r="I54" s="2" t="s">
         <v>69</v>
-      </c>
-      <c r="I54" s="2" t="s">
-        <v>70</v>
       </c>
       <c r="J54" s="2"/>
       <c r="K54" t="s">
+        <v>70</v>
+      </c>
+      <c r="R54" t="s">
         <v>71</v>
       </c>
-      <c r="R54" t="s">
+      <c r="S54" t="s">
         <v>72</v>
       </c>
-      <c r="S54" t="s">
+    </row>
+    <row r="55" spans="3:21" ht="17.5" customHeight="1">
+      <c r="E55" s="1" t="s">
         <v>73</v>
-      </c>
-    </row>
-    <row r="55" spans="3:21" ht="17.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="E55" s="1" t="s">
-        <v>74</v>
       </c>
       <c r="F55" s="1"/>
       <c r="G55" t="s">
+        <v>74</v>
+      </c>
+      <c r="I55" s="2" t="s">
         <v>75</v>
       </c>
-      <c r="I55" s="2" t="s">
+      <c r="J55" s="2"/>
+    </row>
+    <row r="56" spans="3:21" ht="17.5" customHeight="1">
+      <c r="E56" s="4" t="s">
+        <v>127</v>
+      </c>
+      <c r="F56" s="4" t="s">
+        <v>111</v>
+      </c>
+      <c r="G56" t="s">
         <v>76</v>
       </c>
-      <c r="J55" s="2"/>
-    </row>
-    <row r="56" spans="3:21" ht="17.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="E56" s="4" t="s">
-        <v>128</v>
-      </c>
-      <c r="F56" s="4" t="s">
-        <v>112</v>
-      </c>
-      <c r="G56" t="s">
+      <c r="I56" s="2" t="s">
         <v>77</v>
       </c>
-      <c r="I56" s="2" t="s">
-        <v>78</v>
-      </c>
       <c r="J56" s="2"/>
     </row>
-    <row r="57" spans="3:21" ht="17.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="57" spans="3:21" ht="17.5" customHeight="1">
       <c r="C57" s="1" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="F57" s="1"/>
       <c r="I57" s="2"/>
       <c r="J57" s="2"/>
     </row>
-    <row r="58" spans="3:21" ht="17.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="58" spans="3:21" ht="17.5" customHeight="1">
       <c r="E58" s="1" t="s">
         <v>22</v>
       </c>
       <c r="F58" s="1"/>
       <c r="G58" s="1" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="H58" s="1"/>
       <c r="I58" s="2" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="J58" s="2"/>
       <c r="N58" s="1" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="U58" t="b">
         <v>1</v>
       </c>
     </row>
-    <row r="59" spans="3:21" ht="17.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="59" spans="3:21" ht="17.5" customHeight="1">
       <c r="C59" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="E59" s="1"/>
       <c r="F59" s="1"/>
@@ -1639,9 +1673,9 @@
       <c r="J59" s="2"/>
       <c r="N59" s="1"/>
     </row>
-    <row r="60" spans="3:21" ht="17.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="60" spans="3:21" ht="17.5" customHeight="1">
       <c r="C60" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="E60" s="1"/>
       <c r="F60" s="1"/>
@@ -1651,39 +1685,39 @@
       <c r="J60" s="2"/>
       <c r="N60" s="1"/>
     </row>
-    <row r="61" spans="3:21" ht="17.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="61" spans="3:21" ht="17.5" customHeight="1">
       <c r="E61" s="4" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="F61" s="1"/>
       <c r="G61" s="4" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="H61" s="4" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="I61" s="2"/>
       <c r="J61" s="2"/>
       <c r="N61" s="1"/>
     </row>
-    <row r="62" spans="3:21" ht="17.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="62" spans="3:21" ht="17.5" customHeight="1">
       <c r="E62" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="F62" s="1"/>
       <c r="G62" s="1" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="H62" s="1"/>
       <c r="I62" s="2" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="J62" s="2"/>
       <c r="K62" t="s">
+        <v>83</v>
+      </c>
+      <c r="O62" s="1" t="s">
         <v>84</v>
-      </c>
-      <c r="O62" s="1" t="s">
-        <v>85</v>
       </c>
       <c r="P62" s="1">
         <v>1</v>
@@ -1692,102 +1726,102 @@
         <v>10</v>
       </c>
     </row>
-    <row r="63" spans="3:21" ht="17.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="63" spans="3:21" ht="17.5" customHeight="1">
       <c r="C63" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="64" spans="3:21" ht="17.5" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="65" ht="17.5" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="66" ht="17.5" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="67" ht="17.5" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="68" ht="17.5" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="69" ht="17.5" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="70" ht="17.5" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="71" ht="17.5" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="72" ht="17.5" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="73" ht="17.5" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="74" ht="17.5" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="75" ht="17.5" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="76" ht="17.5" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="77" ht="17.5" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="78" ht="17.5" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="79" ht="17.5" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="80" ht="17.5" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="81" ht="17.5" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="82" ht="17.5" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="83" ht="17.5" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="84" ht="17.5" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="85" ht="17.5" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="86" ht="17.5" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="87" ht="17.5" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="88" ht="17.5" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="89" ht="17.5" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="90" ht="17.5" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="91" ht="17.5" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="92" ht="17.5" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="93" ht="17.5" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="94" ht="17.5" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="95" ht="17.5" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="96" ht="17.5" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="97" ht="17.5" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="98" ht="17.5" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="99" ht="17.5" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="100" ht="17.5" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="101" ht="17.5" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="102" ht="17.5" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="103" ht="17.5" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="104" ht="17.5" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="105" ht="17.5" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="106" ht="17.5" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="107" ht="17.5" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="108" ht="17.5" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="109" ht="17.5" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="110" ht="17.5" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="111" ht="17.5" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="112" ht="17.5" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="113" ht="17.5" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="114" ht="17.5" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="115" ht="17.5" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="116" ht="17.5" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="117" ht="17.5" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="118" ht="17.5" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="119" ht="17.5" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="120" ht="17.5" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="121" ht="17.5" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="122" ht="17.5" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="123" ht="17.5" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="124" ht="17.5" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="125" ht="17.5" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="126" ht="17.5" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="127" ht="17.5" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="128" ht="17.5" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="129" ht="17.5" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="130" ht="17.5" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="131" ht="17.5" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="132" ht="17.5" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="133" ht="17.5" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="134" ht="17.5" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="135" ht="17.5" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="136" ht="17.5" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="137" ht="17.5" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="138" ht="17.5" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="139" ht="17.5" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="140" ht="17.5" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="141" ht="17.5" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="142" ht="17.5" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="143" ht="17.5" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="144" ht="17.5" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="145" ht="17.5" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="146" ht="17.5" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="147" ht="17.5" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="148" ht="17.5" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="149" ht="17.5" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="150" ht="17.5" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="151" ht="17.5" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="152" ht="17.5" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="153" ht="17.5" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="154" ht="17.5" customHeight="1" x14ac:dyDescent="0.25"/>
+        <v>58</v>
+      </c>
+    </row>
+    <row r="64" spans="3:21" ht="17.5" customHeight="1"/>
+    <row r="65" ht="17.5" customHeight="1"/>
+    <row r="66" ht="17.5" customHeight="1"/>
+    <row r="67" ht="17.5" customHeight="1"/>
+    <row r="68" ht="17.5" customHeight="1"/>
+    <row r="69" ht="17.5" customHeight="1"/>
+    <row r="70" ht="17.5" customHeight="1"/>
+    <row r="71" ht="17.5" customHeight="1"/>
+    <row r="72" ht="17.5" customHeight="1"/>
+    <row r="73" ht="17.5" customHeight="1"/>
+    <row r="74" ht="17.5" customHeight="1"/>
+    <row r="75" ht="17.5" customHeight="1"/>
+    <row r="76" ht="17.5" customHeight="1"/>
+    <row r="77" ht="17.5" customHeight="1"/>
+    <row r="78" ht="17.5" customHeight="1"/>
+    <row r="79" ht="17.5" customHeight="1"/>
+    <row r="80" ht="17.5" customHeight="1"/>
+    <row r="81" ht="17.5" customHeight="1"/>
+    <row r="82" ht="17.5" customHeight="1"/>
+    <row r="83" ht="17.5" customHeight="1"/>
+    <row r="84" ht="17.5" customHeight="1"/>
+    <row r="85" ht="17.5" customHeight="1"/>
+    <row r="86" ht="17.5" customHeight="1"/>
+    <row r="87" ht="17.5" customHeight="1"/>
+    <row r="88" ht="17.5" customHeight="1"/>
+    <row r="89" ht="17.5" customHeight="1"/>
+    <row r="90" ht="17.5" customHeight="1"/>
+    <row r="91" ht="17.5" customHeight="1"/>
+    <row r="92" ht="17.5" customHeight="1"/>
+    <row r="93" ht="17.5" customHeight="1"/>
+    <row r="94" ht="17.5" customHeight="1"/>
+    <row r="95" ht="17.5" customHeight="1"/>
+    <row r="96" ht="17.5" customHeight="1"/>
+    <row r="97" ht="17.5" customHeight="1"/>
+    <row r="98" ht="17.5" customHeight="1"/>
+    <row r="99" ht="17.5" customHeight="1"/>
+    <row r="100" ht="17.5" customHeight="1"/>
+    <row r="101" ht="17.5" customHeight="1"/>
+    <row r="102" ht="17.5" customHeight="1"/>
+    <row r="103" ht="17.5" customHeight="1"/>
+    <row r="104" ht="17.5" customHeight="1"/>
+    <row r="105" ht="17.5" customHeight="1"/>
+    <row r="106" ht="17.5" customHeight="1"/>
+    <row r="107" ht="17.5" customHeight="1"/>
+    <row r="108" ht="17.5" customHeight="1"/>
+    <row r="109" ht="17.5" customHeight="1"/>
+    <row r="110" ht="17.5" customHeight="1"/>
+    <row r="111" ht="17.5" customHeight="1"/>
+    <row r="112" ht="17.5" customHeight="1"/>
+    <row r="113" ht="17.5" customHeight="1"/>
+    <row r="114" ht="17.5" customHeight="1"/>
+    <row r="115" ht="17.5" customHeight="1"/>
+    <row r="116" ht="17.5" customHeight="1"/>
+    <row r="117" ht="17.5" customHeight="1"/>
+    <row r="118" ht="17.5" customHeight="1"/>
+    <row r="119" ht="17.5" customHeight="1"/>
+    <row r="120" ht="17.5" customHeight="1"/>
+    <row r="121" ht="17.5" customHeight="1"/>
+    <row r="122" ht="17.5" customHeight="1"/>
+    <row r="123" ht="17.5" customHeight="1"/>
+    <row r="124" ht="17.5" customHeight="1"/>
+    <row r="125" ht="17.5" customHeight="1"/>
+    <row r="126" ht="17.5" customHeight="1"/>
+    <row r="127" ht="17.5" customHeight="1"/>
+    <row r="128" ht="17.5" customHeight="1"/>
+    <row r="129" ht="17.5" customHeight="1"/>
+    <row r="130" ht="17.5" customHeight="1"/>
+    <row r="131" ht="17.5" customHeight="1"/>
+    <row r="132" ht="17.5" customHeight="1"/>
+    <row r="133" ht="17.5" customHeight="1"/>
+    <row r="134" ht="17.5" customHeight="1"/>
+    <row r="135" ht="17.5" customHeight="1"/>
+    <row r="136" ht="17.5" customHeight="1"/>
+    <row r="137" ht="17.5" customHeight="1"/>
+    <row r="138" ht="17.5" customHeight="1"/>
+    <row r="139" ht="17.5" customHeight="1"/>
+    <row r="140" ht="17.5" customHeight="1"/>
+    <row r="141" ht="17.5" customHeight="1"/>
+    <row r="142" ht="17.5" customHeight="1"/>
+    <row r="143" ht="17.5" customHeight="1"/>
+    <row r="144" ht="17.5" customHeight="1"/>
+    <row r="145" ht="17.5" customHeight="1"/>
+    <row r="146" ht="17.5" customHeight="1"/>
+    <row r="147" ht="17.5" customHeight="1"/>
+    <row r="148" ht="17.5" customHeight="1"/>
+    <row r="149" ht="17.5" customHeight="1"/>
+    <row r="150" ht="17.5" customHeight="1"/>
+    <row r="151" ht="17.5" customHeight="1"/>
+    <row r="152" ht="17.5" customHeight="1"/>
+    <row r="153" ht="17.5" customHeight="1"/>
+    <row r="154" ht="17.5" customHeight="1"/>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <extLst>
@@ -1806,26 +1840,26 @@
       <selection activeCell="B40" sqref="B40"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="12.75" customHeight="1" x14ac:dyDescent="0"/>
   <cols>
-    <col min="1" max="1" width="21.453125" customWidth="1"/>
-    <col min="2" max="2" width="49.453125" customWidth="1"/>
+    <col min="1" max="1" width="21.5" customWidth="1"/>
+    <col min="2" max="2" width="49.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="17.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" ht="17.5" customHeight="1">
       <c r="A1" s="4" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="B1" s="1" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" ht="17.5" customHeight="1">
+      <c r="A2" s="1" t="s">
         <v>86</v>
       </c>
-    </row>
-    <row r="2" spans="1:2" ht="17.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="1" t="s">
+      <c r="B2" s="1" t="s">
         <v>87</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>88</v>
       </c>
     </row>
   </sheetData>
@@ -1846,169 +1880,169 @@
       <selection activeCell="F13" sqref="F13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.453125" defaultRowHeight="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="12.75" customHeight="1" x14ac:dyDescent="0"/>
   <cols>
-    <col min="1" max="1" width="16.81640625" customWidth="1"/>
-    <col min="2" max="2" width="18.1796875" customWidth="1"/>
-    <col min="3" max="3" width="23.453125" customWidth="1"/>
+    <col min="1" max="1" width="16.83203125" customWidth="1"/>
+    <col min="2" max="2" width="18.1640625" customWidth="1"/>
+    <col min="3" max="3" width="23.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="17.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" ht="17.5" customHeight="1">
       <c r="A1" t="s">
+        <v>121</v>
+      </c>
+      <c r="B1" t="s">
         <v>122</v>
       </c>
-      <c r="B1" t="s">
-        <v>123</v>
-      </c>
       <c r="C1" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" ht="17.5" customHeight="1" x14ac:dyDescent="0.25">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" ht="17.5" customHeight="1">
       <c r="A2" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="B2" s="1" t="s">
         <v>89</v>
       </c>
-      <c r="B2" s="1" t="s">
+      <c r="C2" s="1" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" ht="17.5" customHeight="1">
+      <c r="A3" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="B3" s="1" t="s">
         <v>90</v>
       </c>
-      <c r="C2" s="1" t="s">
+      <c r="C3" s="1" t="s">
         <v>90</v>
       </c>
     </row>
-    <row r="3" spans="1:3" ht="17.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="1" t="s">
-        <v>89</v>
-      </c>
-      <c r="B3" s="1" t="s">
+    <row r="4" spans="1:3" ht="17.5" customHeight="1">
+      <c r="A4" s="1" t="s">
         <v>91</v>
       </c>
-      <c r="C3" s="1" t="s">
+      <c r="B4" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" ht="17.5" customHeight="1">
+      <c r="A5" s="1" t="s">
         <v>91</v>
       </c>
-    </row>
-    <row r="4" spans="1:3" ht="17.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>93</v>
-      </c>
-      <c r="C4" s="1" t="s">
+      <c r="B5" s="1" t="s">
         <v>94</v>
       </c>
-    </row>
-    <row r="5" spans="1:3" ht="17.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="B5" s="1" t="s">
+      <c r="C5" s="1" t="s">
         <v>95</v>
       </c>
-      <c r="C5" s="1" t="s">
+    </row>
+    <row r="6" spans="1:3" ht="17.5" customHeight="1">
+      <c r="A6" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="B6" s="1" t="s">
         <v>96</v>
       </c>
-    </row>
-    <row r="6" spans="1:3" ht="17.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="B6" s="1" t="s">
+      <c r="C6" s="1" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" ht="17.5" customHeight="1">
+      <c r="A7" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="B7" s="1" t="s">
         <v>97</v>
       </c>
-      <c r="C6" s="1" t="s">
+      <c r="C7" s="1" t="s">
         <v>97</v>
       </c>
     </row>
-    <row r="7" spans="1:3" ht="17.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="B7" s="1" t="s">
+    <row r="8" spans="1:3" ht="17.5" customHeight="1">
+      <c r="A8" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="B8" s="1" t="s">
         <v>98</v>
       </c>
-      <c r="C7" s="1" t="s">
+      <c r="C8" s="1" t="s">
         <v>98</v>
       </c>
     </row>
-    <row r="8" spans="1:3" ht="17.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="B8" s="1" t="s">
+    <row r="9" spans="1:3" ht="17.5" customHeight="1">
+      <c r="A9" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="B9" s="1" t="s">
         <v>99</v>
       </c>
-      <c r="C8" s="1" t="s">
+      <c r="C9" s="1" t="s">
         <v>99</v>
       </c>
     </row>
-    <row r="9" spans="1:3" ht="17.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="B9" s="1" t="s">
+    <row r="10" spans="1:3" ht="17.5" customHeight="1">
+      <c r="A10" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="B10" s="1" t="s">
         <v>100</v>
       </c>
-      <c r="C9" s="1" t="s">
+      <c r="C10" s="1" t="s">
         <v>100</v>
       </c>
     </row>
-    <row r="10" spans="1:3" ht="17.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="B10" s="1" t="s">
-        <v>101</v>
-      </c>
-      <c r="C10" s="1" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" ht="17.5" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="12" spans="1:3" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:3" ht="17.5" customHeight="1"/>
+    <row r="12" spans="1:3" ht="24" customHeight="1">
       <c r="A12" t="s">
         <v>12</v>
       </c>
       <c r="B12" t="s">
+        <v>101</v>
+      </c>
+      <c r="C12" t="s">
         <v>102</v>
       </c>
-      <c r="C12" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="13" spans="1:3" ht="24" customHeight="1">
       <c r="A13" t="s">
         <v>12</v>
       </c>
       <c r="B13" t="s">
+        <v>103</v>
+      </c>
+      <c r="C13" t="s">
         <v>104</v>
       </c>
-      <c r="C13" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="14" spans="1:3" ht="24" customHeight="1">
       <c r="A14" t="s">
         <v>12</v>
       </c>
       <c r="B14" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="C14" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" ht="24" customHeight="1">
       <c r="A15" t="s">
         <v>12</v>
       </c>
       <c r="B15" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C15" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" ht="24" customHeight="1">
       <c r="A16" t="s">
         <v>12</v>
       </c>
@@ -2019,64 +2053,64 @@
         <v>16</v>
       </c>
     </row>
-    <row r="17" spans="1:3" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:3" ht="24" customHeight="1">
       <c r="A17" t="s">
         <v>12</v>
       </c>
       <c r="B17" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="C17" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" ht="24" customHeight="1">
       <c r="A18" t="s">
         <v>12</v>
       </c>
       <c r="B18" t="s">
+        <v>107</v>
+      </c>
+      <c r="C18" t="s">
         <v>108</v>
       </c>
-      <c r="C18" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="19" spans="1:3" ht="24" customHeight="1">
       <c r="A19" t="s">
         <v>12</v>
       </c>
       <c r="B19" t="s">
+        <v>109</v>
+      </c>
+      <c r="C19" t="s">
         <v>110</v>
       </c>
-      <c r="C19" t="s">
+    </row>
+    <row r="20" spans="1:3" ht="17.5" customHeight="1"/>
+    <row r="21" spans="1:3" ht="17.5" customHeight="1">
+      <c r="A21" t="s">
         <v>111</v>
       </c>
-    </row>
-    <row r="20" spans="1:3" ht="17.5" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="21" spans="1:3" ht="17.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" t="s">
+      <c r="B21" t="s">
         <v>112</v>
       </c>
-      <c r="B21" t="s">
+      <c r="C21" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" ht="17.5" customHeight="1">
+      <c r="A22" t="s">
+        <v>111</v>
+      </c>
+      <c r="B22" t="s">
         <v>113</v>
       </c>
-      <c r="C21" t="s">
+      <c r="C22" t="s">
         <v>113</v>
       </c>
     </row>
-    <row r="22" spans="1:3" ht="17.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" t="s">
-        <v>112</v>
-      </c>
-      <c r="B22" t="s">
-        <v>114</v>
-      </c>
-      <c r="C22" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3" ht="17.5" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="24" spans="1:3" ht="17.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="23" spans="1:3" ht="17.5" customHeight="1"/>
+    <row r="24" spans="1:3" ht="17.5" customHeight="1"/>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <extLst>
@@ -2095,51 +2129,51 @@
       <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.453125" defaultRowHeight="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="12.75" customHeight="1" x14ac:dyDescent="0"/>
   <cols>
-    <col min="1" max="1" width="15.453125" customWidth="1"/>
-    <col min="2" max="2" width="24.1796875" customWidth="1"/>
-    <col min="3" max="3" width="25.1796875" customWidth="1"/>
+    <col min="1" max="1" width="15.5" customWidth="1"/>
+    <col min="2" max="2" width="24.1640625" customWidth="1"/>
+    <col min="3" max="3" width="25.1640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="14.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" ht="14.5" customHeight="1">
       <c r="A1" s="3" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="B1" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="C1" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" ht="14.5" customHeight="1">
+      <c r="A2" s="1" t="s">
         <v>115</v>
       </c>
-      <c r="C1" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" ht="14.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="1" t="s">
+      <c r="B2" s="1" t="s">
         <v>116</v>
       </c>
-      <c r="B2" s="1" t="s">
+    </row>
+    <row r="3" spans="1:3" ht="14.5" customHeight="1">
+      <c r="A3" s="1" t="s">
         <v>117</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" ht="14.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="1" t="s">
-        <v>118</v>
       </c>
       <c r="B3" s="1">
         <v>20130408</v>
       </c>
     </row>
-    <row r="4" spans="1:3" ht="14.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:3" ht="14.5" customHeight="1">
       <c r="A4" s="4" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" ht="14.5" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="6" spans="1:3" ht="14.5" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="7" spans="1:3" ht="14.5" customHeight="1" x14ac:dyDescent="0.25"/>
+        <v>118</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" ht="14.5" customHeight="1"/>
+    <row r="6" spans="1:3" ht="14.5" customHeight="1"/>
+    <row r="7" spans="1:3" ht="14.5" customHeight="1"/>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <extLst>
